--- a/nickwork/plot2016.xlsx
+++ b/nickwork/plot2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickrad/Desktop/workspace/practice/project2/project-baseball/nickwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2B91E3-B2D6-6346-829F-1CC16C61B0AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53C9F6-B865-0348-852E-A539E1DD9D0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="460" windowWidth="20960" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
